--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_8.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_15_8.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1368481.653924708</v>
+        <v>-1371079.485497345</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49.19642384953926</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>23.10143382040427</v>
+        <v>347.5794841653711</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>49.46799653111401</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,13 +716,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>114.7053989184405</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>207.7251964036219</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>74.32262784155856</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>251.2852794514152</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1054,7 +1054,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>37.68656955246517</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>178.5054027163021</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>117.0340619339629</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>201.0564857346842</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>84.24991053201711</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1342,10 +1342,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>217.8670799781931</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>52.57516893522976</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>105.6507867899569</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174121</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1768,7 +1768,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>9.570729811036321</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>141.5502843483913</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>69.15817284271283</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>55.5207962406042</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>120.1447214650588</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2318,7 +2318,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2761,13 +2761,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,13 +3004,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>60.11729550773637</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3080,7 +3080,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3190,7 +3190,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
         <v>122.1493151545294</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.090599218082</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1241.788518759168</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="C2" t="n">
-        <v>1241.788518759168</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="D2" t="n">
-        <v>1241.788518759168</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="E2" t="n">
-        <v>856.000266160924</v>
+        <v>863.2907526671916</v>
       </c>
       <c r="F2" t="n">
-        <v>445.0143613713164</v>
+        <v>452.304847877584</v>
       </c>
       <c r="G2" t="n">
-        <v>421.6795797345444</v>
+        <v>101.2144598317546</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4358,22 +4358,22 @@
         <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
         <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="W2" t="n">
-        <v>1291.481876182945</v>
+        <v>1622.544763526516</v>
       </c>
       <c r="X2" t="n">
-        <v>1291.481876182945</v>
+        <v>1249.079005265436</v>
       </c>
       <c r="Y2" t="n">
-        <v>1291.481876182945</v>
+        <v>1249.079005265436</v>
       </c>
     </row>
     <row r="3">
@@ -4383,46 +4383,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057878</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>790.7764984014359</v>
+        <v>932.4978103100998</v>
       </c>
       <c r="M3" t="n">
-        <v>1154.038517360656</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1541.323645957601</v>
+        <v>1683.044957866265</v>
       </c>
       <c r="O3" t="n">
-        <v>2175.502629736639</v>
+        <v>2015.115393042427</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.9138669598626</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C4" t="n">
-        <v>346.0498276483066</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D4" t="n">
-        <v>346.0498276483066</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
         <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1279.178225384193</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>989.7610553472321</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336325</v>
+        <v>761.7715044492147</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901023</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4541,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2051.278283189673</v>
+        <v>1844.338003964587</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1475.375487024175</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1117.109788417424</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>731.3215358191801</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>320.3356310295725</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4589,28 +4589,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="X5" t="n">
-        <v>2051.278283189673</v>
+        <v>2621.07717600452</v>
       </c>
       <c r="Y5" t="n">
-        <v>2051.278283189673</v>
+        <v>2230.937844028708</v>
       </c>
     </row>
     <row r="6">
@@ -4641,7 +4641,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
@@ -4699,7 +4699,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.7574741064773</v>
+        <v>777.6936570343842</v>
       </c>
       <c r="C7" t="n">
         <v>608.7574741064773</v>
@@ -4711,16 +4711,16 @@
         <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1889.227306116306</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="T7" t="n">
-        <v>1555.300176323095</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="U7" t="n">
-        <v>1555.300176323095</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="V7" t="n">
-        <v>1300.615688117208</v>
+        <v>1697.541421943132</v>
       </c>
       <c r="W7" t="n">
-        <v>1011.198518080247</v>
+        <v>1408.124251906171</v>
       </c>
       <c r="X7" t="n">
-        <v>1011.198518080247</v>
+        <v>1180.134701008154</v>
       </c>
       <c r="Y7" t="n">
-        <v>790.405938936717</v>
+        <v>959.3421218646239</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1190.154071768027</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="C8" t="n">
-        <v>1190.154071768027</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1190.154071768027</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3122.518462281207</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2791.455574937636</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180639</v>
+        <v>2438.686919667522</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.509627919559</v>
+        <v>2065.221161406442</v>
       </c>
       <c r="Y8" t="n">
-        <v>1308.370295943747</v>
+        <v>2065.221161406442</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>732.4676803942466</v>
+        <v>795.2798542473295</v>
       </c>
       <c r="C10" t="n">
-        <v>563.5314974663397</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="D10" t="n">
-        <v>563.5314974663397</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E10" t="n">
-        <v>563.5314974663397</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F10" t="n">
-        <v>416.6415499684293</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>248.9387133431483</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
@@ -4990,22 +4990,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1425.710449119117</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1425.710449119117</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368016</v>
+        <v>1425.710449119117</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368016</v>
+        <v>1425.710449119117</v>
       </c>
       <c r="X10" t="n">
-        <v>1134.908724368016</v>
+        <v>1197.720898221099</v>
       </c>
       <c r="Y10" t="n">
-        <v>914.1161452244863</v>
+        <v>976.9283190775692</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5033,16 +5033,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111722</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1859.536823237711</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>984.5772922261132</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>815.6411092982063</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>665.5244698858705</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>517.6113763034774</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>370.721428805567</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5194,16 +5194,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5224,25 +5224,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2273.199413378161</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="14">
@@ -5264,16 +5264,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5303,16 +5303,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852888</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>951.7772127656159</v>
+        <v>659.9487421954783</v>
       </c>
       <c r="C16" t="n">
-        <v>782.841029837709</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2187.395141638036</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1898.319914982233</v>
+        <v>1834.480995310113</v>
       </c>
       <c r="V16" t="n">
-        <v>1643.635426776346</v>
+        <v>1579.796507104226</v>
       </c>
       <c r="W16" t="n">
-        <v>1354.218256739386</v>
+        <v>1290.379337067265</v>
       </c>
       <c r="X16" t="n">
-        <v>1354.218256739386</v>
+        <v>1062.389786169248</v>
       </c>
       <c r="Y16" t="n">
-        <v>1133.425677595856</v>
+        <v>841.597207025718</v>
       </c>
     </row>
     <row r="17">
@@ -5507,10 +5507,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5519,16 +5519,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,25 +5540,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,10 +5586,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5604,13 +5604,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2310.060639587498</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2090.45917461044</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1801.383947954638</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1546.699459748751</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1257.28228971179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1029.292738813773</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1029.292738813773</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2390.881471216014</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2171.280006238955</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U22" t="n">
-        <v>1882.204779583153</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V22" t="n">
-        <v>1627.520291377266</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W22" t="n">
-        <v>1338.103121340305</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X22" t="n">
-        <v>1110.113570442288</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y22" t="n">
-        <v>889.3209912987577</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="23">
@@ -5984,7 +5984,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -5993,13 +5993,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
         <v>402.7245934908939</v>
@@ -6175,22 +6175,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6409,10 +6409,10 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
         <v>1746.193029533436</v>
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6449,19 +6449,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
         <v>411.2214559580113</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6871,34 +6871,34 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T34" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,13 +6932,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6950,7 +6950,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7014,19 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2149.810879820877</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380733</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311327</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,10 +7117,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,25 +7248,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,10 +7306,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
         <v>656.9646031150021</v>
@@ -7318,13 +7318,13 @@
         <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797189</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7351,7 +7351,7 @@
         <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931273</v>
@@ -7360,7 +7360,7 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
         <v>1978.840049838285</v>
@@ -7369,10 +7369,10 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319317</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150016</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942648</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
         <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
         <v>483.8255460380728</v>
@@ -7591,10 +7591,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7603,16 +7603,16 @@
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580118</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G46" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,25 +7807,25 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380726</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.265941231132</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
         <v>2596.781734931274</v>
@@ -8061,7 +8061,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>199.751631150407</v>
+        <v>342.9044714621885</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,10 +8070,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>162.0073097921331</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>333.5374178139413</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22562,10 +22562,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>251.5505560312914</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>10.85945694847288</v>
       </c>
     </row>
     <row r="5">
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>112.9489693570391</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>75.37549921168767</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -23656,7 +23656,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>144.6341900408528</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>111.8681131589318</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24142,10 +24142,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>10.85445046951749</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>166.0397529241853</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24415,7 +24415,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24892,13 +24892,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>226.0671788815078</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1260226.388994694</v>
+        <v>1260226.388994695</v>
       </c>
     </row>
     <row r="7">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1260226.388994695</v>
+        <v>1260226.388994694</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>135401.7127154574</v>
+        <v>135401.7127154575</v>
       </c>
       <c r="C2" t="n">
         <v>164208.3539728567</v>
@@ -26326,34 +26326,34 @@
         <v>161429.3199380012</v>
       </c>
       <c r="G2" t="n">
-        <v>161429.3199380013</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="H2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="I2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="J2" t="n">
-        <v>161429.3199380012</v>
+        <v>161429.3199380011</v>
       </c>
       <c r="K2" t="n">
         <v>161429.3199380012</v>
       </c>
       <c r="L2" t="n">
+        <v>164208.3539728568</v>
+      </c>
+      <c r="M2" t="n">
         <v>164208.3539728567</v>
       </c>
-      <c r="M2" t="n">
-        <v>164208.3539728568</v>
-      </c>
       <c r="N2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="O2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
       <c r="P2" t="n">
-        <v>164208.3539728568</v>
+        <v>164208.3539728567</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605442</v>
+        <v>49110.09270605448</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363179</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55720.99847008435</v>
+        <v>55720.99847008436</v>
       </c>
       <c r="C4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="D4" t="n">
-        <v>89134.17909312021</v>
+        <v>89134.17909312018</v>
       </c>
       <c r="E4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768938</v>
+        <v>9947.14432176891</v>
       </c>
       <c r="G4" t="n">
-        <v>9947.144321768883</v>
+        <v>9947.14432176891</v>
       </c>
       <c r="H4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="I4" t="n">
-        <v>9947.144321768919</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="L4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486236</v>
       </c>
       <c r="M4" t="n">
         <v>17938.00358486237</v>
       </c>
       <c r="N4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486239</v>
       </c>
       <c r="O4" t="n">
         <v>17938.00358486236</v>
       </c>
       <c r="P4" t="n">
-        <v>17938.00358486237</v>
+        <v>17938.00358486235</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1128008.841770391</v>
+        <v>-1128368.924786109</v>
       </c>
       <c r="C6" t="n">
         <v>-236298.5072937626</v>
       </c>
       <c r="D6" t="n">
-        <v>-32859.76568165679</v>
+        <v>-32859.76568165683</v>
       </c>
       <c r="E6" t="n">
-        <v>-275052.8160150297</v>
+        <v>-275087.5539404657</v>
       </c>
       <c r="F6" t="n">
-        <v>50359.64579232517</v>
+        <v>50324.90786688949</v>
       </c>
       <c r="G6" t="n">
-        <v>50359.64579232526</v>
+        <v>50324.90786688941</v>
       </c>
       <c r="H6" t="n">
-        <v>50359.64579232522</v>
+        <v>50324.90786688947</v>
       </c>
       <c r="I6" t="n">
-        <v>50359.64579232516</v>
+        <v>50324.90786688941</v>
       </c>
       <c r="J6" t="n">
-        <v>-117245.5320176574</v>
+        <v>-117280.2699430931</v>
       </c>
       <c r="K6" t="n">
-        <v>1249.553086270709</v>
+        <v>1214.815160835016</v>
       </c>
       <c r="L6" t="n">
-        <v>23678.51654044716</v>
+        <v>23678.51654044722</v>
       </c>
       <c r="M6" t="n">
-        <v>-41948.79340143278</v>
+        <v>-41948.79340143283</v>
       </c>
       <c r="N6" t="n">
-        <v>43106.23453407903</v>
+        <v>43106.23453407892</v>
       </c>
       <c r="O6" t="n">
-        <v>43106.23453407903</v>
+        <v>43106.23453407898</v>
       </c>
       <c r="P6" t="n">
-        <v>43106.23453407903</v>
+        <v>43106.23453407898</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757591</v>
+        <v>155.711808475759</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
-        <v>190.8166233022537</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>388.4462689525497</v>
+        <v>63.96821860758291</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,7 +27436,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27537,16 +27537,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>52.54142218018735</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>290.950263929449</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>159.6364462020382</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,7 +27774,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>51.24558311758216</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>41.04354655986714</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>265.6997797295177</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>49.93868622421775</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>60.50510438230367</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,10 +28062,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.681869297976107</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28387,7 +28387,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29038,7 +29038,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203968</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,37 +31838,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>322.6999460717718</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214697</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,19 +32087,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32324,16 +32324,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,13 +32801,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>549.9198891312103</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33020,16 +33020,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,16 +33038,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33196,7 +33196,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
         <v>790.8204499236507</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33679,7 +33679,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33734,7 +33734,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>549.9198891312103</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,10 +33986,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,13 +34223,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>497.4319917882572</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>249.6795291235323</v>
+        <v>411.6868389156654</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>191.3582339884385</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071394</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,19 +35735,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35972,16 +35972,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,13 +36449,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>407.3236446867659</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36668,16 +36668,16 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,16 +36686,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37327,7 +37327,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,7 +37382,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>407.3236446867659</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,10 +37634,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,13 +37871,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111711</v>
@@ -38190,10 +38190,10 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
